--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_24.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1288301.395682056</v>
+        <v>1280672.909657943</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8078410.590648622</v>
+        <v>8854286.53570825</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1928039.641030761</v>
+        <v>1928039.64103076</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10597037.18428935</v>
+        <v>10538821.84420311</v>
       </c>
     </row>
     <row r="11">
@@ -662,13 +662,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>219.7130816251281</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>13.80587249615601</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,7 +713,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,28 +859,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>94.65568569260694</v>
       </c>
       <c r="V4" t="n">
-        <v>234.3107022885809</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>43.18906015185979</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>101.7602638082833</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231965</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325231</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984489</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.007578794843</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>10.62366378450165</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>351.2727216241787</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>411.4371413535349</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>299.8862654257798</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>61.44749355031655</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>261.5578699851727</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1224,13 +1224,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0669836643703</v>
+        <v>135.275240877313</v>
       </c>
       <c r="H9" t="n">
-        <v>99.90681807664345</v>
+        <v>92.26024958059013</v>
       </c>
       <c r="I9" t="n">
-        <v>45.44580843958667</v>
+        <v>18.18624318344743</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.90078060183509</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>147.9721212459916</v>
+        <v>133.2658462320107</v>
       </c>
       <c r="T9" t="n">
-        <v>195.0194028815133</v>
+        <v>191.828123840699</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8053112726921</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2570059982656</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>134.5432544441071</v>
       </c>
       <c r="U10" t="n">
-        <v>234.2969928267007</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,10 +1385,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>14.59946548753628</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>166.7407881259183</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>74.75769145492382</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,19 +1576,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>114.2656173771021</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1607,13 +1607,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>141.1762660121942</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>267.7297315007289</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>48.82091888591733</v>
+        <v>62.09581973348946</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>25.87859906451798</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>62.8559503318363</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>54.01253154060669</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>37.68656955246585</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>77.31354443380484</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>82.4419746122348</v>
       </c>
     </row>
     <row r="23">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,19 +2530,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>147.0633545968146</v>
       </c>
       <c r="W25" t="n">
-        <v>244.1831094673599</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>99.20555210933566</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -2731,7 +2731,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>28.43919684076868</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>37.59657533957286</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,7 +2956,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3001,10 +3001,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>217.0914199928482</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>28.87956703897748</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3205,7 +3205,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>27.0097185683662</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3281,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873199</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3430,10 +3430,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>115.1131774584548</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
@@ -3442,7 +3442,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3484,13 +3484,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>149.2419515106229</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3670,16 +3670,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3706,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>120.7389995830104</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>27.0097185683662</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3758,7 +3758,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,19 +3898,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>107.6271709532134</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -3955,13 +3955,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>49.27898230896983</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3977,10 +3977,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4025,19 +4025,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>101.890756684063</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>168.1158122680976</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>149.6746290300084</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>209.3584761600174</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1971.274048960885</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="C2" t="n">
-        <v>1971.274048960885</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
         <v>952.5674858910851</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2683.203765264529</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2507.0262775787</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2288.391610550762</v>
       </c>
       <c r="U2" t="n">
-        <v>2302.336936304455</v>
+        <v>2034.629825188854</v>
       </c>
       <c r="V2" t="n">
-        <v>1971.274048960885</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="W2" t="n">
-        <v>1971.274048960885</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="X2" t="n">
-        <v>1971.274048960885</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="Y2" t="n">
-        <v>1971.274048960885</v>
+        <v>1703.566937845283</v>
       </c>
     </row>
     <row r="3">
@@ -4410,22 +4410,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.59950625323012</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>336.2769833124028</v>
+        <v>632.5171804765284</v>
       </c>
       <c r="V4" t="n">
-        <v>99.59950625323012</v>
+        <v>632.5171804765284</v>
       </c>
       <c r="W4" t="n">
-        <v>99.59950625323012</v>
+        <v>632.5171804765284</v>
       </c>
       <c r="X4" t="n">
-        <v>99.59950625323012</v>
+        <v>404.5276295785111</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.59950625323012</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1036.358670716696</v>
+        <v>999.560246824487</v>
       </c>
       <c r="C5" t="n">
-        <v>1036.358670716696</v>
+        <v>999.560246824487</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>641.2945482177365</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>641.2945482177365</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>634.3490474685331</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>217.2612657049605</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>109.8675491160735</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>192.4307036906658</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>745.243961936865</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>1376.961772920177</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>2004.269440980023</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2551.430645747101</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2662.164970996627</v>
       </c>
       <c r="Q5" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.457387763373</v>
       </c>
       <c r="V5" t="n">
-        <v>2539.332256287823</v>
+        <v>2112.394500419803</v>
       </c>
       <c r="W5" t="n">
-        <v>2186.563601017709</v>
+        <v>1759.625845149689</v>
       </c>
       <c r="X5" t="n">
-        <v>1813.097842756629</v>
+        <v>1386.160086888609</v>
       </c>
       <c r="Y5" t="n">
-        <v>1422.958510780817</v>
+        <v>1386.160086888609</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>967.3646662469702</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>792.9116369658432</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>643.9772273045919</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>484.7397722991365</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>338.2052143260214</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>200.7638166852434</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>99.84783883004796</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,49 +4647,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>121.5508014837215</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>332.0575713317425</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>972.6029207988471</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1640.147320825857</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2189.58332957858</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2636.288039261394</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2615.176139663581</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2465.709350526216</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2268.720054686303</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167582</v>
+        <v>2040.581267197469</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1805.429158965726</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1551.191802237525</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1343.340302031992</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>1135.580003267038</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.5995062532301</v>
+        <v>479.5992470441835</v>
       </c>
       <c r="C7" t="n">
-        <v>99.5995062532301</v>
+        <v>479.5992470441835</v>
       </c>
       <c r="D7" t="n">
-        <v>99.5995062532301</v>
+        <v>479.5992470441835</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>479.5992470441835</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>332.7092995462731</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>332.7092995462731</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>178.4546564460382</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>154.9909114159743</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>339.8239063167927</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>545.0935070360306</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>750.9168718721348</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>925.0117672607337</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>1050.459343859349</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="R7" t="n">
-        <v>570.4215814289018</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="S7" t="n">
-        <v>570.4215814289018</v>
+        <v>715.9594172515172</v>
       </c>
       <c r="T7" t="n">
-        <v>570.4215814289018</v>
+        <v>490.3302205638821</v>
       </c>
       <c r="U7" t="n">
-        <v>281.2479710834698</v>
+        <v>490.3302205638821</v>
       </c>
       <c r="V7" t="n">
-        <v>281.2479710834698</v>
+        <v>490.3302205638821</v>
       </c>
       <c r="W7" t="n">
-        <v>281.2479710834698</v>
+        <v>479.5992470441835</v>
       </c>
       <c r="X7" t="n">
-        <v>281.2479710834698</v>
+        <v>479.5992470441835</v>
       </c>
       <c r="Y7" t="n">
-        <v>281.2479710834698</v>
+        <v>479.5992470441835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2432.949222346331</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="C8" t="n">
-        <v>2063.986705405919</v>
+        <v>1989.559504814594</v>
       </c>
       <c r="D8" t="n">
-        <v>1705.721006799168</v>
+        <v>1631.293806207844</v>
       </c>
       <c r="E8" t="n">
-        <v>1319.932754200924</v>
+        <v>1245.505553609599</v>
       </c>
       <c r="F8" t="n">
-        <v>908.9468494113166</v>
+        <v>834.519648819992</v>
       </c>
       <c r="G8" t="n">
-        <v>491.8590676477442</v>
+        <v>418.9265767457143</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202537</v>
+        <v>116.0111571237145</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>242.5828808341008</v>
+        <v>199.5143021373487</v>
       </c>
       <c r="K8" t="n">
-        <v>646.0499938541462</v>
+        <v>468.4264940665503</v>
       </c>
       <c r="L8" t="n">
-        <v>1094.46325341956</v>
+        <v>838.9376088552594</v>
       </c>
       <c r="M8" t="n">
-        <v>1281.162666244967</v>
+        <v>1282.872051350724</v>
       </c>
       <c r="N8" t="n">
-        <v>1475.49687913695</v>
+        <v>1738.603625623768</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904027</v>
+        <v>2155.602766936376</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2477.000885571628</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2670.18474111696</v>
       </c>
       <c r="R8" t="n">
         <v>2697.149091018222</v>
@@ -4841,13 +4841,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2432.949222346331</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>2432.949222346331</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y8" t="n">
-        <v>2432.949222346331</v>
+        <v>2344.380435748108</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>967.3646662469702</v>
+        <v>931.3062050962127</v>
       </c>
       <c r="C9" t="n">
-        <v>792.9116369658432</v>
+        <v>756.8531758150857</v>
       </c>
       <c r="D9" t="n">
-        <v>643.9772273045919</v>
+        <v>607.9187661538344</v>
       </c>
       <c r="E9" t="n">
-        <v>484.7397722991365</v>
+        <v>448.681311148379</v>
       </c>
       <c r="F9" t="n">
-        <v>338.2052143260214</v>
+        <v>302.146753175264</v>
       </c>
       <c r="G9" t="n">
-        <v>200.7638166852434</v>
+        <v>165.5050957234327</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004796</v>
+        <v>72.31292442990731</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>172.6022336772601</v>
+        <v>121.8264159807866</v>
       </c>
       <c r="K9" t="n">
-        <v>502.03063798307</v>
+        <v>577.8254266426378</v>
       </c>
       <c r="L9" t="n">
-        <v>1006.392177849189</v>
+        <v>885.2448246870097</v>
       </c>
       <c r="M9" t="n">
-        <v>1185.889514203793</v>
+        <v>1263.345630340811</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>1665.862284161955</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2011.866589198268</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2270.232482025003</v>
       </c>
       <c r="Q9" t="n">
-        <v>2636.288039261394</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="R9" t="n">
-        <v>2615.176139663581</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="S9" t="n">
-        <v>2465.709350526216</v>
+        <v>2426.374760706703</v>
       </c>
       <c r="T9" t="n">
-        <v>2268.720054686303</v>
+        <v>2232.608979049431</v>
       </c>
       <c r="U9" t="n">
-        <v>2040.581267197469</v>
+        <v>2004.522806046712</v>
       </c>
       <c r="V9" t="n">
-        <v>1805.429158965726</v>
+        <v>1769.370697814969</v>
       </c>
       <c r="W9" t="n">
-        <v>1551.191802237525</v>
+        <v>1515.133341086767</v>
       </c>
       <c r="X9" t="n">
-        <v>1343.340302031992</v>
+        <v>1307.281840881235</v>
       </c>
       <c r="Y9" t="n">
-        <v>1135.580003267038</v>
+        <v>1099.521542116281</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.7922583306645</v>
+        <v>666.7990320082214</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027576</v>
+        <v>666.7990320082214</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>516.6823925958856</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>368.7692990134926</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>221.8793515155822</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4960,52 +4960,52 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>82.8833909048594</v>
       </c>
       <c r="K10" t="n">
-        <v>154.9909114159743</v>
+        <v>260.2782098866545</v>
       </c>
       <c r="L10" t="n">
-        <v>339.8239063167927</v>
+        <v>542.8089378877603</v>
       </c>
       <c r="M10" t="n">
-        <v>545.0935070360306</v>
+        <v>851.0870999282808</v>
       </c>
       <c r="N10" t="n">
-        <v>750.9168718721348</v>
+        <v>1157.469712732903</v>
       </c>
       <c r="O10" t="n">
-        <v>925.0117672607337</v>
+        <v>1424.447349606354</v>
       </c>
       <c r="P10" t="n">
-        <v>1050.459343859349</v>
+        <v>1629.372157534689</v>
       </c>
       <c r="Q10" t="n">
-        <v>1053.877663279709</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="R10" t="n">
-        <v>1053.877663279709</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="T10" t="n">
-        <v>828.2484665920741</v>
+        <v>1551.914115085895</v>
       </c>
       <c r="U10" t="n">
-        <v>591.5848374741946</v>
+        <v>1551.914115085895</v>
       </c>
       <c r="V10" t="n">
-        <v>591.5848374741946</v>
+        <v>1297.229626880008</v>
       </c>
       <c r="W10" t="n">
-        <v>591.5848374741946</v>
+        <v>1297.229626880008</v>
       </c>
       <c r="X10" t="n">
-        <v>591.5848374741946</v>
+        <v>1069.240075981991</v>
       </c>
       <c r="Y10" t="n">
-        <v>370.7922583306645</v>
+        <v>848.4474968384611</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2062.330773118627</v>
+        <v>1917.382287315189</v>
       </c>
       <c r="C11" t="n">
-        <v>1693.368256178216</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D11" t="n">
-        <v>1335.102557571465</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E11" t="n">
-        <v>949.3143049732209</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F11" t="n">
-        <v>538.3284001836134</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G11" t="n">
-        <v>123.2559500286099</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
@@ -5063,28 +5063,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>3119.628073993392</v>
+        <v>3046.890114625237</v>
       </c>
       <c r="V11" t="n">
-        <v>2788.565186649821</v>
+        <v>3046.890114625237</v>
       </c>
       <c r="W11" t="n">
-        <v>2435.796531379707</v>
+        <v>2694.121459355123</v>
       </c>
       <c r="X11" t="n">
-        <v>2062.330773118627</v>
+        <v>2694.121459355123</v>
       </c>
       <c r="Y11" t="n">
-        <v>2062.330773118627</v>
+        <v>2303.982127379311</v>
       </c>
     </row>
     <row r="12">
@@ -5115,7 +5115,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.5121164321834</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C13" t="n">
-        <v>66.5121164321834</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D13" t="n">
-        <v>66.5121164321834</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E13" t="n">
-        <v>66.5121164321834</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F13" t="n">
-        <v>66.5121164321834</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G13" t="n">
-        <v>66.5121164321834</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H13" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5224,25 +5224,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368016</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V13" t="n">
-        <v>880.2242361621296</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="W13" t="n">
-        <v>590.8070661251691</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X13" t="n">
-        <v>362.8175152271517</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y13" t="n">
-        <v>142.0249360836216</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1594.601034732593</v>
+        <v>921.7704558796261</v>
       </c>
       <c r="C14" t="n">
-        <v>1225.638517792182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="D14" t="n">
-        <v>867.3728191854311</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="E14" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="F14" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G14" t="n">
-        <v>66.5121164321834</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H14" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001389</v>
@@ -5300,28 +5300,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V14" t="n">
-        <v>2994.542934265599</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W14" t="n">
-        <v>2641.774278995485</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X14" t="n">
-        <v>2371.340206772526</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y14" t="n">
-        <v>1981.200874796715</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="15">
@@ -5352,7 +5352,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>431.4421061205821</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C16" t="n">
-        <v>431.4421061205821</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D16" t="n">
-        <v>431.4421061205821</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E16" t="n">
-        <v>283.529012538189</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F16" t="n">
-        <v>234.2149530574644</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G16" t="n">
-        <v>66.5121164321834</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H16" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
@@ -5458,28 +5458,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V16" t="n">
-        <v>880.2242361621296</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W16" t="n">
-        <v>880.2242361621296</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X16" t="n">
-        <v>652.2346852641123</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y16" t="n">
-        <v>431.4421061205821</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1616.654488422266</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="C17" t="n">
-        <v>1247.691971481854</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D17" t="n">
-        <v>889.4262728751039</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E17" t="n">
-        <v>503.6380202768597</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F17" t="n">
-        <v>92.6521154872521</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U17" t="n">
-        <v>3119.628073993394</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V17" t="n">
-        <v>3119.628073993394</v>
+        <v>2692.316069873278</v>
       </c>
       <c r="W17" t="n">
-        <v>2766.859418723279</v>
+        <v>2339.547414603163</v>
       </c>
       <c r="X17" t="n">
-        <v>2393.393660462199</v>
+        <v>1966.081656342083</v>
       </c>
       <c r="Y17" t="n">
-        <v>2003.254328486388</v>
+        <v>1575.942324366272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>936.5735814686084</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>846.0716871064759</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>827.0643955080138</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>920.7416649986312</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2176.004930555062</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="C19" t="n">
-        <v>2007.068747627156</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D19" t="n">
-        <v>1856.95210821482</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E19" t="n">
-        <v>1709.039014632427</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F19" t="n">
-        <v>1562.149067134517</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G19" t="n">
-        <v>1562.149067134517</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H19" t="n">
-        <v>1562.149067134517</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P19" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>3325.605821609171</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
-        <v>3133.919937435998</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T19" t="n">
-        <v>3133.919937435998</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U19" t="n">
-        <v>3133.919937435998</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V19" t="n">
-        <v>3095.85269546381</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W19" t="n">
-        <v>2806.435525426849</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="X19" t="n">
-        <v>2578.445974528832</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="Y19" t="n">
-        <v>2357.653395385302</v>
+        <v>879.9099329995254</v>
       </c>
     </row>
     <row r="20">
@@ -5750,25 +5750,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1237.706702364128</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M20" t="n">
-        <v>2216.257005193957</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420604</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3554.371154826471</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q20" t="n">
         <v>4719.034655862919</v>
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
@@ -5835,7 +5835,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>492.7083461157126</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="C22" t="n">
-        <v>323.7721631878057</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="D22" t="n">
-        <v>173.65552377547</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5932,28 +5932,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1667.240599230347</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>1412.556111024461</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W22" t="n">
-        <v>1123.1389409875</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X22" t="n">
-        <v>895.1493900894825</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="Y22" t="n">
-        <v>674.3568109459524</v>
+        <v>536.5812623108401</v>
       </c>
     </row>
     <row r="23">
@@ -5963,49 +5963,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1172.647446689875</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2151.197749519704</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q23" t="n">
         <v>4653.975400188666</v>
@@ -6020,19 +6020,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>951.7264155301116</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>951.7264155301116</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6178,19 +6178,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1453.060509258584</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>1198.376021052697</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
-        <v>951.7264155301116</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>951.7264155301116</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>951.7264155301116</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6215,46 +6215,46 @@
         <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L26" t="n">
-        <v>1069.293752345675</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M26" t="n">
-        <v>2047.844055175504</v>
+        <v>2782.232616025903</v>
       </c>
       <c r="N26" t="n">
-        <v>2812.369300656582</v>
+        <v>3329.011433084685</v>
       </c>
       <c r="O26" t="n">
-        <v>3692.333950986037</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4405.689038432983</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
         <v>4208.252829604874</v>
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
@@ -6336,7 +6336,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3259.915775626156</v>
+        <v>3942.370854773036</v>
       </c>
       <c r="C28" t="n">
-        <v>3259.915775626156</v>
+        <v>3773.434671845129</v>
       </c>
       <c r="D28" t="n">
-        <v>3259.915775626156</v>
+        <v>3623.318032432793</v>
       </c>
       <c r="E28" t="n">
-        <v>3259.915775626156</v>
+        <v>3475.4049388504</v>
       </c>
       <c r="F28" t="n">
-        <v>3259.915775626156</v>
+        <v>3328.51499135249</v>
       </c>
       <c r="G28" t="n">
-        <v>3092.212939000875</v>
+        <v>3160.812154727209</v>
       </c>
       <c r="H28" t="n">
-        <v>2945.995752218733</v>
+        <v>3014.594967945066</v>
       </c>
       <c r="I28" t="n">
-        <v>2917.269290763411</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="J28" t="n">
-        <v>2962.391923210347</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K28" t="n">
-        <v>3166.379106159223</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L28" t="n">
-        <v>3482.938904607719</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M28" t="n">
-        <v>3827.095950207268</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N28" t="n">
-        <v>4168.504326913133</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O28" t="n">
-        <v>4467.833925833546</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P28" t="n">
-        <v>4700.441426267205</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q28" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R28" t="n">
-        <v>4688.221265177248</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S28" t="n">
-        <v>4496.535381004074</v>
+        <v>4586.365838246547</v>
       </c>
       <c r="T28" t="n">
-        <v>4274.7687655736</v>
+        <v>4586.365838246547</v>
       </c>
       <c r="U28" t="n">
-        <v>3985.665898699243</v>
+        <v>4297.262971372191</v>
       </c>
       <c r="V28" t="n">
-        <v>3730.981410493357</v>
+        <v>4042.578483166304</v>
       </c>
       <c r="W28" t="n">
-        <v>3441.564240456396</v>
+        <v>4042.578483166304</v>
       </c>
       <c r="X28" t="n">
-        <v>3441.564240456396</v>
+        <v>4042.578483166304</v>
       </c>
       <c r="Y28" t="n">
-        <v>3441.564240456396</v>
+        <v>4042.578483166304</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551604</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001573</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
         <v>284.4401654074198</v>
@@ -6467,46 +6467,46 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2216.257005193956</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.009277420603</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331035</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6516,13 +6516,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
         <v>487.9678785494859</v>
@@ -6531,13 +6531,13 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3236.322113103653</v>
+        <v>3384.235206686048</v>
       </c>
       <c r="C31" t="n">
-        <v>3067.385930175747</v>
+        <v>3215.299023758141</v>
       </c>
       <c r="D31" t="n">
-        <v>2917.269290763411</v>
+        <v>3065.182384345805</v>
       </c>
       <c r="E31" t="n">
-        <v>2917.269290763411</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="F31" t="n">
-        <v>2917.269290763411</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="G31" t="n">
-        <v>2917.269290763411</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="H31" t="n">
-        <v>2917.269290763411</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="I31" t="n">
-        <v>2917.269290763411</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="J31" t="n">
-        <v>2962.391923210347</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K31" t="n">
-        <v>3166.379106159223</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L31" t="n">
-        <v>3482.938904607719</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M31" t="n">
-        <v>3827.095950207268</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N31" t="n">
-        <v>4168.504326913133</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O31" t="n">
-        <v>4467.833925833546</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P31" t="n">
-        <v>4700.441426267205</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q31" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R31" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S31" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="T31" t="n">
-        <v>4556.285106989246</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="U31" t="n">
-        <v>4267.182240114889</v>
+        <v>4558.767459800682</v>
       </c>
       <c r="V31" t="n">
-        <v>4012.497751909003</v>
+        <v>4304.082971594796</v>
       </c>
       <c r="W31" t="n">
-        <v>3723.080581872042</v>
+        <v>4014.665801557835</v>
       </c>
       <c r="X31" t="n">
-        <v>3495.091030974025</v>
+        <v>3786.676250659817</v>
       </c>
       <c r="Y31" t="n">
-        <v>3274.298451830495</v>
+        <v>3565.883671516287</v>
       </c>
     </row>
     <row r="32">
@@ -6677,73 +6677,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
         <v>189.2383039390118</v>
@@ -6810,7 +6810,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1023.336921276364</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C34" t="n">
-        <v>854.4007383484569</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D34" t="n">
-        <v>704.2840989361212</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E34" t="n">
-        <v>556.371005353728</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F34" t="n">
-        <v>409.4810578558177</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G34" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6880,28 +6880,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T34" t="n">
-        <v>1453.060509258584</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U34" t="n">
-        <v>1453.060509258584</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V34" t="n">
-        <v>1425.777965250134</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="W34" t="n">
-        <v>1425.777965250134</v>
+        <v>1377.823429193387</v>
       </c>
       <c r="X34" t="n">
-        <v>1425.777965250134</v>
+        <v>1149.833878295369</v>
       </c>
       <c r="Y34" t="n">
-        <v>1204.985386106604</v>
+        <v>1149.833878295369</v>
       </c>
     </row>
     <row r="35">
@@ -6911,55 +6911,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
         <v>4667.761053946815</v>
@@ -6971,16 +6971,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6990,37 +6990,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7047,7 +7047,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7056,10 +7056,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>844.8098170227823</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C37" t="n">
-        <v>675.8736340948755</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D37" t="n">
-        <v>525.7569946825397</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E37" t="n">
-        <v>409.4810578558177</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F37" t="n">
-        <v>409.4810578558177</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G37" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7117,28 +7117,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T37" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U37" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V37" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="W37" t="n">
-        <v>1475.240411894569</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="X37" t="n">
-        <v>1247.250860996552</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="Y37" t="n">
-        <v>1026.458281853022</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="38">
@@ -7151,25 +7151,25 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
         <v>284.4401654074198</v>
@@ -7178,40 +7178,40 @@
         <v>939.1634975427194</v>
       </c>
       <c r="L38" t="n">
-        <v>1803.682313196074</v>
+        <v>1682.725100522032</v>
       </c>
       <c r="M38" t="n">
-        <v>2337.214217867999</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N38" t="n">
-        <v>2883.993034926781</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O38" t="n">
-        <v>3763.957685256236</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4405.689038432983</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7284,7 +7284,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7293,10 +7293,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1023.336921276364</v>
+        <v>659.8526275526848</v>
       </c>
       <c r="C40" t="n">
-        <v>854.4007383484569</v>
+        <v>490.9164446247779</v>
       </c>
       <c r="D40" t="n">
-        <v>704.2840989361212</v>
+        <v>340.7998052124422</v>
       </c>
       <c r="E40" t="n">
-        <v>556.371005353728</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F40" t="n">
-        <v>409.4810578558177</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G40" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7354,28 +7354,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258584</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U40" t="n">
-        <v>1453.060509258584</v>
+        <v>1834.38488066732</v>
       </c>
       <c r="V40" t="n">
-        <v>1453.060509258584</v>
+        <v>1579.700392461433</v>
       </c>
       <c r="W40" t="n">
-        <v>1453.060509258584</v>
+        <v>1290.283222424472</v>
       </c>
       <c r="X40" t="n">
-        <v>1425.777965250134</v>
+        <v>1062.293671526455</v>
       </c>
       <c r="Y40" t="n">
-        <v>1204.985386106604</v>
+        <v>841.5010923829245</v>
       </c>
     </row>
     <row r="41">
@@ -7388,67 +7388,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2337.214217867999</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N41" t="n">
-        <v>2883.993034926781</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O41" t="n">
-        <v>3763.957685256236</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7464,37 +7464,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7521,7 +7521,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7530,10 +7530,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>500.6091747370274</v>
+        <v>1023.336921276364</v>
       </c>
       <c r="C43" t="n">
-        <v>500.6091747370274</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D43" t="n">
-        <v>350.4925353246916</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E43" t="n">
-        <v>241.7782212305366</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F43" t="n">
-        <v>241.7782212305366</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G43" t="n">
         <v>241.7782212305366</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7591,28 +7591,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U43" t="n">
-        <v>1385.724257814702</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V43" t="n">
-        <v>1131.039769608815</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="W43" t="n">
-        <v>1131.039769608815</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="X43" t="n">
-        <v>903.0502187107973</v>
+        <v>1425.777965250134</v>
       </c>
       <c r="Y43" t="n">
-        <v>682.2576395672671</v>
+        <v>1204.985386106604</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1278.358723975039</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C44" t="n">
-        <v>1278.358723975039</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D44" t="n">
         <v>1278.358723975039</v>
@@ -7637,61 +7637,61 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U44" t="n">
-        <v>3112.395196889737</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V44" t="n">
-        <v>2781.332309546166</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W44" t="n">
-        <v>2428.563654276052</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X44" t="n">
-        <v>2055.097896014972</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y44" t="n">
-        <v>1664.958564039161</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="45">
@@ -7701,37 +7701,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D45" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1075.097337786232</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C46" t="n">
-        <v>906.1611548583251</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D46" t="n">
-        <v>756.0445154459893</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E46" t="n">
-        <v>608.1314218635962</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F46" t="n">
-        <v>461.2414743656858</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G46" t="n">
         <v>310.0549803959803</v>
@@ -7801,7 +7801,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7846,10 +7846,10 @@
         <v>1705.527932658019</v>
       </c>
       <c r="X46" t="n">
-        <v>1477.538381760002</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y46" t="n">
-        <v>1256.745802616472</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>35.04072454780376</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8231,10 +8231,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>74.01734528517878</v>
       </c>
       <c r="M6" t="n">
-        <v>422.286579409329</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2066704284449</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,31 +8529,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>48.10560617263477</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>169.6592766025886</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>17.26494649393209</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>314.5564971416988</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9635,28 +9635,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>104.3976710547477</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9875,28 +9875,28 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>219.9458872952486</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>246.454569480845</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>170.1140909277297</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10124,7 +10124,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10346,13 +10346,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1.017475755656733</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10361,7 +10361,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10592,22 +10592,22 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>283.3156027685499</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10826,25 +10826,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>295.4822118493981</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>249.4515018379481</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,22 +11060,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P41" t="n">
-        <v>315.167921710931</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>280.0082988997842</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>84.25438383298371</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>105.0742887270135</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,19 +23464,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>172.2573809594889</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23495,13 +23495,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>224.0966257588133</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>102.0013691777401</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>96.60012913701391</v>
+        <v>83.32522828944178</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23729,13 +23729,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23744,10 +23744,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>385.0431265889355</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -23780,16 +23780,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>264.8963081382986</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>113.2342895580211</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>214.4510737713622</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>69.12041821276433</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>136.14267873986</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,19 +24418,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="W25" t="n">
-        <v>42.33988886923115</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>80.62642807260164</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>67.91322356906942</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>142.2354048423644</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24889,10 +24889,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>69.12041821276469</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>150.9524131429598</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25120,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>225.1279247554618</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25318,10 +25318,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>31.32078518811436</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -25372,13 +25372,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>69.34270184147189</v>
       </c>
     </row>
     <row r="38">
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,25 +25594,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>165.4728386226025</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>198.699936820671</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,19 +25786,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>38.80679169335575</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,13 +25843,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>176.4306730800673</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25865,10 +25865,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25913,19 +25913,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>149.104415274839</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>181.1251564493154</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26035,7 +26035,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>16.35117922901978</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>16.35117922901975</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1015061.31162634</v>
+        <v>992670.4058138183</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>992670.4058138183</v>
+        <v>952991.2360215699</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>789172.8793532163</v>
+        <v>789172.8793532165</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>789172.8793532165</v>
+        <v>789172.8793532164</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>789172.8793532164</v>
+        <v>789172.8793532163</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>941057.0352632772</v>
+        <v>941057.0352632771</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>941057.0352632772</v>
+        <v>941057.0352632771</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>941057.0352632771</v>
+        <v>941057.0352632772</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>941057.0352632772</v>
+        <v>941057.0352632771</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>941057.0352632771</v>
+        <v>941057.0352632772</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>789172.8793532165</v>
+        <v>789172.8793532167</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185704</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185702</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="E2" t="n">
         <v>409196.5187651048</v>
@@ -26326,25 +26326,25 @@
         <v>409196.5187651048</v>
       </c>
       <c r="G2" t="n">
-        <v>409196.5187651048</v>
+        <v>409196.5187651049</v>
       </c>
       <c r="H2" t="n">
         <v>476498.1442643799</v>
       </c>
       <c r="I2" t="n">
+        <v>476498.1442643797</v>
+      </c>
+      <c r="J2" t="n">
+        <v>476498.1442643797</v>
+      </c>
+      <c r="K2" t="n">
         <v>476498.1442643799</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>476498.1442643799</v>
+      </c>
+      <c r="M2" t="n">
         <v>476498.1442643798</v>
-      </c>
-      <c r="K2" t="n">
-        <v>476498.1442643798</v>
-      </c>
-      <c r="L2" t="n">
-        <v>476498.1442643797</v>
-      </c>
-      <c r="M2" t="n">
-        <v>476498.1442643797</v>
       </c>
       <c r="N2" t="n">
         <v>476498.1442643799</v>
@@ -26353,7 +26353,7 @@
         <v>476498.1442643798</v>
       </c>
       <c r="P2" t="n">
-        <v>409196.5187651047</v>
+        <v>409196.5187651048</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>196446.3877966352</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481116</v>
+        <v>315238.2384513057</v>
       </c>
       <c r="E3" t="n">
-        <v>445640.2295734512</v>
+        <v>149914.8602001174</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>97970.7440129484</v>
+        <v>97970.74401294843</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>39153.48277254658</v>
+        <v>39153.48277254675</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207826.5542404878</v>
+        <v>209922.4154630333</v>
       </c>
       <c r="C4" t="n">
-        <v>207826.5542404878</v>
+        <v>176266.9759012794</v>
       </c>
       <c r="D4" t="n">
-        <v>174833.3509411825</v>
+        <v>121617.1617317167</v>
       </c>
       <c r="E4" t="n">
-        <v>5356.477108136404</v>
+        <v>5500.795347005323</v>
       </c>
       <c r="F4" t="n">
-        <v>5356.477108136404</v>
+        <v>5500.795347005323</v>
       </c>
       <c r="G4" t="n">
-        <v>5356.477108136404</v>
+        <v>5500.795347005323</v>
       </c>
       <c r="H4" t="n">
-        <v>27740.54210219668</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="I4" t="n">
-        <v>27740.54210219668</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="J4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="K4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="L4" t="n">
-        <v>27740.54210219668</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="M4" t="n">
-        <v>27740.54210219666</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="N4" t="n">
-        <v>27740.54210219666</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="O4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="P4" t="n">
-        <v>5356.477108136404</v>
+        <v>5500.795347005323</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26470,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>87562.0451708468</v>
       </c>
       <c r="D5" t="n">
-        <v>87562.0451708468</v>
+        <v>95586.42776879412</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
         <v>74306.3405613933</v>
@@ -26491,22 +26491,22 @@
         <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="K5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="L5" t="n">
         <v>96383.51825371364</v>
       </c>
-      <c r="K5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="M5" t="n">
-        <v>96383.51825371364</v>
-      </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
         <v>74306.3405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-388028.4495998719</v>
+        <v>-390124.3108224174</v>
       </c>
       <c r="C6" t="n">
-        <v>201939.4296146726</v>
+        <v>32349.65304980904</v>
       </c>
       <c r="D6" t="n">
-        <v>45473.38725842931</v>
+        <v>-39816.76603324681</v>
       </c>
       <c r="E6" t="n">
-        <v>-116106.5284778761</v>
+        <v>179474.5226565888</v>
       </c>
       <c r="F6" t="n">
-        <v>329533.7010955751</v>
+        <v>329389.3828567062</v>
       </c>
       <c r="G6" t="n">
-        <v>329533.7010955751</v>
+        <v>329389.3828567063</v>
       </c>
       <c r="H6" t="n">
-        <v>254403.3398955212</v>
+        <v>253582.042644822</v>
       </c>
       <c r="I6" t="n">
-        <v>352374.0839084696</v>
+        <v>351552.7866577703</v>
       </c>
       <c r="J6" t="n">
-        <v>175950.8647158766</v>
+        <v>175129.5674651774</v>
       </c>
       <c r="K6" t="n">
-        <v>352374.0839084695</v>
+        <v>351552.7866577705</v>
       </c>
       <c r="L6" t="n">
-        <v>352374.0839084694</v>
+        <v>351552.7866577705</v>
       </c>
       <c r="M6" t="n">
-        <v>313220.6011359228</v>
+        <v>312399.3038852236</v>
       </c>
       <c r="N6" t="n">
-        <v>352374.0839084695</v>
+        <v>351552.7866577705</v>
       </c>
       <c r="O6" t="n">
-        <v>352374.0839084695</v>
+        <v>351552.7866577704</v>
       </c>
       <c r="P6" t="n">
-        <v>329533.701095575</v>
+        <v>329389.3828567062</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>593.4761003380651</v>
+        <v>961.5670451980343</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26796,13 +26796,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
         <v>1194.51293060493</v>
@@ -26829,7 +26829,7 @@
         <v>1194.51293060493</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209784</v>
+        <v>368.0909448599692</v>
       </c>
       <c r="E3" t="n">
-        <v>496.3006002552332</v>
+        <v>128.209655395264</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>157.1141826477369</v>
+        <v>157.1141826477372</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,13 +27027,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>363.1114752026374</v>
+        <v>363.1114752026375</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>157.1141826477367</v>
+        <v>157.1141826477374</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>157.1141826477369</v>
+        <v>157.1141826477372</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>363.1114752026374</v>
+        <v>363.1114752026375</v>
       </c>
     </row>
   </sheetData>
@@ -27382,13 +27382,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>134.9699599955549</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>40.67253007865568</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>191.6261885493708</v>
       </c>
       <c r="V4" t="n">
-        <v>17.8269410352471</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,19 +27619,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>271.8518239233558</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>225.9919946618517</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>19.65761318531486</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>275.8993345520893</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>14.00017014682885</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>120.9327970537822</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>206.1742023667267</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>251.0364052149085</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>87.6830987322403</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>146.8105729959039</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>103.3051669679944</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>99.32764374521086</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>193.7981713870603</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>85.99353971789449</v>
       </c>
       <c r="U10" t="n">
-        <v>51.96366183139631</v>
+        <v>286.2244489913895</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.38583356919825</v>
+        <v>3.865596161600135</v>
       </c>
       <c r="H8" t="n">
-        <v>24.43391804055158</v>
+        <v>39.58853668998739</v>
       </c>
       <c r="I8" t="n">
-        <v>91.97984867651562</v>
+        <v>149.0283960200894</v>
       </c>
       <c r="J8" t="n">
-        <v>202.4946418937401</v>
+        <v>328.0876422206098</v>
       </c>
       <c r="K8" t="n">
-        <v>303.4869768779021</v>
+        <v>491.7183277411436</v>
       </c>
       <c r="L8" t="n">
-        <v>376.5024309712531</v>
+        <v>610.0200662717139</v>
       </c>
       <c r="M8" t="n">
-        <v>418.9314987074825</v>
+        <v>678.7648620105701</v>
       </c>
       <c r="N8" t="n">
-        <v>425.710248335967</v>
+        <v>689.7479871047167</v>
       </c>
       <c r="O8" t="n">
-        <v>401.9861157822519</v>
+        <v>651.3094652728053</v>
       </c>
       <c r="P8" t="n">
-        <v>343.0858495426701</v>
+        <v>555.8775600333018</v>
       </c>
       <c r="Q8" t="n">
-        <v>257.6431848457577</v>
+        <v>417.4408974959969</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>242.8222548861147</v>
       </c>
       <c r="S8" t="n">
-        <v>54.36718245810517</v>
+        <v>88.08727253246316</v>
       </c>
       <c r="T8" t="n">
-        <v>10.44398644916534</v>
+        <v>16.9216471974046</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.3092476929280107</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.276533498840366</v>
+        <v>2.068276285897659</v>
       </c>
       <c r="H9" t="n">
-        <v>12.32862615985301</v>
+        <v>19.97519465590634</v>
       </c>
       <c r="I9" t="n">
-        <v>43.95082441182841</v>
+        <v>71.21038966796765</v>
       </c>
       <c r="J9" t="n">
-        <v>120.6044214847383</v>
+        <v>195.4067520812345</v>
       </c>
       <c r="K9" t="n">
-        <v>206.1321659070429</v>
+        <v>333.9812632363776</v>
       </c>
       <c r="L9" t="n">
-        <v>277.1701353512822</v>
+        <v>449.0790242691386</v>
       </c>
       <c r="M9" t="n">
-        <v>323.4444746842454</v>
+        <v>524.0540396329286</v>
       </c>
       <c r="N9" t="n">
-        <v>332.0050874900653</v>
+        <v>537.9241906905494</v>
       </c>
       <c r="O9" t="n">
-        <v>303.7197925947077</v>
+        <v>492.0955424609223</v>
       </c>
       <c r="P9" t="n">
-        <v>243.7619099671574</v>
+        <v>394.9500567342644</v>
       </c>
       <c r="Q9" t="n">
-        <v>162.9483813607457</v>
+        <v>264.0136536173924</v>
       </c>
       <c r="R9" t="n">
-        <v>79.25705355080804</v>
+        <v>128.4145574700319</v>
       </c>
       <c r="S9" t="n">
-        <v>23.71104985784626</v>
+        <v>38.4173248718271</v>
       </c>
       <c r="T9" t="n">
-        <v>5.145325813308317</v>
+        <v>8.336604854122577</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.1360708082827408</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.070202803888314</v>
+        <v>1.733973360193176</v>
       </c>
       <c r="H10" t="n">
-        <v>9.515075838207016</v>
+        <v>15.41659951153571</v>
       </c>
       <c r="I10" t="n">
-        <v>32.18391704784131</v>
+        <v>52.1453079592639</v>
       </c>
       <c r="J10" t="n">
-        <v>75.66333823490379</v>
+        <v>122.5919165656576</v>
       </c>
       <c r="K10" t="n">
-        <v>124.3381075790241</v>
+        <v>201.4561776660799</v>
       </c>
       <c r="L10" t="n">
-        <v>159.1099695889954</v>
+        <v>257.7945484781746</v>
       </c>
       <c r="M10" t="n">
-        <v>167.7591540676927</v>
+        <v>271.8082059073722</v>
       </c>
       <c r="N10" t="n">
-        <v>163.7702163441091</v>
+        <v>265.3452142921069</v>
       </c>
       <c r="O10" t="n">
-        <v>151.2683017714137</v>
+        <v>245.0892527662138</v>
       </c>
       <c r="P10" t="n">
-        <v>129.436164572092</v>
+        <v>209.7161962182728</v>
       </c>
       <c r="Q10" t="n">
-        <v>89.61489115104783</v>
+        <v>145.1966238249032</v>
       </c>
       <c r="R10" t="n">
-        <v>48.12020970937817</v>
+        <v>77.96574763195862</v>
       </c>
       <c r="S10" t="n">
-        <v>18.65071613685361</v>
+        <v>30.21842664991198</v>
       </c>
       <c r="T10" t="n">
-        <v>4.572684707522795</v>
+        <v>7.408795266279934</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.0945803651014461</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31850,7 +31850,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
         <v>557.708647897025</v>
@@ -32093,7 +32093,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
@@ -32807,7 +32807,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33044,7 +33044,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33278,7 +33278,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
@@ -33737,7 +33737,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -33746,7 +33746,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
         <v>557.708647897025</v>
@@ -33974,7 +33974,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138796</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>56.4894619148576</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>212.6331008565868</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856228</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>147.0417376939235</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>271.628476696163</v>
       </c>
       <c r="L8" t="n">
-        <v>452.9426864297107</v>
+        <v>374.2536513017266</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>448.4186287832974</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>460.3349235081258</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>421.2112538511185</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>324.6445642780323</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>195.1352076215474</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>27.23671707198255</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>68.56912541456785</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>460.6050612745972</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>310.5246444892645</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>381.9200057109103</v>
       </c>
       <c r="N9" t="n">
-        <v>248.7689815793668</v>
+        <v>406.5824786072161</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>349.4992980164779</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>260.9756493199341</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>293.6911561339595</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>29.2327364489848</v>
       </c>
       <c r="K10" t="n">
-        <v>102.0686157531412</v>
+        <v>179.186685840197</v>
       </c>
       <c r="L10" t="n">
-        <v>186.6999948493115</v>
+        <v>285.3845737384908</v>
       </c>
       <c r="M10" t="n">
-        <v>207.3430310295333</v>
+        <v>311.3920828692127</v>
       </c>
       <c r="N10" t="n">
-        <v>207.9023887233377</v>
+        <v>309.4773866713355</v>
       </c>
       <c r="O10" t="n">
-        <v>175.8534296854534</v>
+        <v>269.6743806802535</v>
       </c>
       <c r="P10" t="n">
-        <v>126.7147238369855</v>
+        <v>206.9947554831663</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.452847899353443</v>
+        <v>59.0345805732088</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35498,7 +35498,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
         <v>415.1124034525806</v>
@@ -35741,7 +35741,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>713.3184833610707</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
         <v>59.61319854222478</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>559.9877854470799</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36455,7 +36455,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>772.24772270816</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>754.5075703690641</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36692,7 +36692,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>625.7042053200619</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
         <v>988.4346493230593</v>
@@ -36844,7 +36844,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -36926,7 +36926,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>456.6075901479889</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
         <v>988.4346493230593</v>
@@ -37081,7 +37081,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
         <v>661.3366991265652</v>
@@ -37312,22 +37312,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>835.6174381814614</v>
       </c>
       <c r="O35" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37394,7 +37394,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525806</v>
@@ -37546,25 +37546,25 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>751.0723262417303</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>648.21348805732</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340054</v>
@@ -37780,22 +37780,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P41" t="n">
-        <v>713.9299079303029</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037195</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597718</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1372114.610842062</v>
+        <v>1367808.495840223</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10357448.82631056</v>
+        <v>10367347.96096032</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>418320.0334880267</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11005485.29021803</v>
+        <v>11005380.33195417</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>295.9408816142887</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>87.35915619339045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,16 +819,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -867,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>86.11283245544982</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>129.0666178516128</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>307.060576048998</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>33.61883455056066</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>105.7617448159915</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>11.63416311648868</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>268.3637299550654</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>61.28409936281348</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>79.85983986272613</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.5630920045443</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081963</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.1970568374742</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>368.1940563011266</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1463,10 +1463,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4224477376697</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561457</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.4255876952162</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3907690366107</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7492064608734</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>9.434273714502938</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>74.20064764874513</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108356</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>181.338488358459</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4819944627618</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>78.91051008678102</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>107.4021082756238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812101</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>18.70843787977262</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>45.16086499484859</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>82.85993176808007</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2484,7 +2484,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,13 +2532,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>242.7989073183581</v>
+        <v>160.9888698962432</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2721,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>214.0647808588581</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>179.4684961233927</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>23.10998325717174</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3198,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>212.4076860934775</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3426,13 +3426,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>101.9154861872836</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>111.5512144998715</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>151.8518831495024</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>91.89996056624796</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>45.16086499484859</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>36.74735985927995</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>36.74735985927992</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1595.875667274027</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="C2" t="n">
-        <v>1595.875667274027</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="D2" t="n">
-        <v>1595.875667274027</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2423.485734520778</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W2" t="n">
-        <v>2070.717079250664</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="X2" t="n">
-        <v>2070.717079250664</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="Y2" t="n">
-        <v>1982.475507338148</v>
+        <v>1662.483574129469</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4436,25 +4436,25 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073962</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>351.9727148150933</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="C4" t="n">
-        <v>351.9727148150933</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4515,25 +4515,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>641.1463251605253</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>641.1463251605253</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>351.9727148150933</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>351.9727148150933</v>
+        <v>597.7586631441991</v>
       </c>
       <c r="W4" t="n">
-        <v>351.9727148150933</v>
+        <v>597.7586631441991</v>
       </c>
       <c r="X4" t="n">
-        <v>351.9727148150933</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="Y4" t="n">
-        <v>351.9727148150933</v>
+        <v>369.7691122461817</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1937.315630222944</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="C5" t="n">
         <v>1568.353113282533</v>
@@ -4555,31 +4555,31 @@
         <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G5" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533135</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073312</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2663.190672280282</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2487.013184594452</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T5" t="n">
-        <v>2268.378517566515</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U5" t="n">
-        <v>2268.378517566515</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V5" t="n">
-        <v>1937.315630222944</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W5" t="n">
-        <v>1937.315630222944</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X5" t="n">
-        <v>1937.315630222944</v>
+        <v>2268.654643287635</v>
       </c>
       <c r="Y5" t="n">
-        <v>1937.315630222944</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4658,31 +4658,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.942782082032</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>222.942782082032</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>222.942782082032</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>443.7353612255621</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>443.7353612255621</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>443.7353612255621</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>443.7353612255621</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>443.7353612255621</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>443.7353612255621</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.942782082032</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1586.028036199279</v>
+        <v>597.6692349330297</v>
       </c>
       <c r="C8" t="n">
-        <v>1586.028036199279</v>
+        <v>597.6692349330297</v>
       </c>
       <c r="D8" t="n">
-        <v>1586.028036199279</v>
+        <v>597.6692349330297</v>
       </c>
       <c r="E8" t="n">
-        <v>1200.239783601035</v>
+        <v>597.6692349330297</v>
       </c>
       <c r="F8" t="n">
-        <v>789.2538788114275</v>
+        <v>590.7237341838262</v>
       </c>
       <c r="G8" t="n">
-        <v>372.1660970478549</v>
+        <v>173.6359524202536</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202536</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>242.5828808341008</v>
@@ -4810,19 +4810,19 @@
         <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>1094.46325341956</v>
+        <v>1198.863252100346</v>
       </c>
       <c r="M8" t="n">
-        <v>1281.162666244967</v>
+        <v>1543.762111616988</v>
       </c>
       <c r="N8" t="n">
-        <v>1475.49687913695</v>
+        <v>2171.069779676835</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904027</v>
+        <v>2341.238804993794</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2451.973130243321</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2685.397411102577</v>
       </c>
       <c r="T8" t="n">
-        <v>2540.93405351505</v>
+        <v>2685.397411102577</v>
       </c>
       <c r="U8" t="n">
-        <v>2540.93405351505</v>
+        <v>2431.705707847728</v>
       </c>
       <c r="V8" t="n">
-        <v>2209.87116617148</v>
+        <v>2100.642820504157</v>
       </c>
       <c r="W8" t="n">
-        <v>1857.102510901366</v>
+        <v>1747.874165234043</v>
       </c>
       <c r="X8" t="n">
-        <v>1586.028036199279</v>
+        <v>1374.408406972963</v>
       </c>
       <c r="Y8" t="n">
-        <v>1586.028036199279</v>
+        <v>984.2690749971514</v>
       </c>
     </row>
     <row r="9">
@@ -4874,16 +4874,16 @@
         <v>338.2052143260214</v>
       </c>
       <c r="G9" t="n">
-        <v>200.7638166852434</v>
+        <v>200.7638166852433</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004796</v>
+        <v>99.84783883004795</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
         <v>383.3713861261743</v>
@@ -4898,10 +4898,10 @@
         <v>1726.935017112062</v>
       </c>
       <c r="O9" t="n">
-        <v>2276.371025864785</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>302.6007139039074</v>
+        <v>582.8120284125088</v>
       </c>
       <c r="C10" t="n">
-        <v>302.6007139039074</v>
+        <v>413.8758454846019</v>
       </c>
       <c r="D10" t="n">
-        <v>152.4840744915716</v>
+        <v>263.7592060722661</v>
       </c>
       <c r="E10" t="n">
-        <v>152.4840744915716</v>
+        <v>115.846112489873</v>
       </c>
       <c r="F10" t="n">
-        <v>152.4840744915716</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>152.4840744915716</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>152.4840744915716</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>154.9909114159743</v>
@@ -4989,25 +4989,25 @@
         <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>846.4373785321145</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>846.4373785321145</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>557.2852021097942</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>302.6007139039074</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>302.6007139039074</v>
+        <v>764.4604932427485</v>
       </c>
       <c r="X10" t="n">
-        <v>302.6007139039074</v>
+        <v>764.4604932427485</v>
       </c>
       <c r="Y10" t="n">
-        <v>302.6007139039074</v>
+        <v>764.4604932427485</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2318.229508727735</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1949.266991787324</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1591.001293180573</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1205.213040582329</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>794.2271357927214</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G11" t="n">
-        <v>380.2440287091278</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>93.81666304797187</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>373.3125385470848</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>842.9429223347665</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1462.462702840541</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2232.714216052256</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2969.999193969362</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3652.861230428501</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4201.167179115849</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q11" t="n">
-        <v>4564.749365221855</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4605.365889165442</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4404.156740844761</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4150.71341156431</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3819.650524220739</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3466.881868950625</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.968680767669</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.829348791857</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.6291563257736</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>769.1761270446466</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>620.2417173833953</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>461.0042623779398</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
-        <v>314.4697044048247</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>178.6894541647543</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>241.4646447998178</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K12" t="n">
-        <v>571.9733873631765</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="L12" t="n">
-        <v>1062.705720206928</v>
+        <v>119.2902967703778</v>
       </c>
       <c r="M12" t="n">
-        <v>1654.724074459055</v>
+        <v>716.6687843969299</v>
       </c>
       <c r="N12" t="n">
-        <v>1654.724074459055</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>1903.635877180809</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2323.219395606885</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.168964849488</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.875258751902</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.845757276272</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.69364904453</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.456292316328</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.604792110795</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.844493345842</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>495.0640298439646</v>
+        <v>802.9288273958744</v>
       </c>
       <c r="C13" t="n">
-        <v>485.5344604353758</v>
+        <v>633.9926444679675</v>
       </c>
       <c r="D13" t="n">
-        <v>485.5344604353758</v>
+        <v>483.8760050556317</v>
       </c>
       <c r="E13" t="n">
-        <v>485.5344604353758</v>
+        <v>335.9629114732386</v>
       </c>
       <c r="F13" t="n">
-        <v>485.5344604353758</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G13" t="n">
-        <v>318.3202656099546</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H13" t="n">
-        <v>176.447548648385</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>172.7987859375258</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>432.4275129080894</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>820.1893309912236</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1239.418923035683</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1654.11478882739</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2021.137245842419</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2311.667680678624</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2429.380814232059</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2361.52146919056</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2178.35127892949</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1958.672496643873</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1669.596282958599</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V13" t="n">
-        <v>1414.911794752712</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W13" t="n">
-        <v>1125.494624715752</v>
+        <v>1433.359422267662</v>
       </c>
       <c r="X13" t="n">
-        <v>897.5050738177345</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y13" t="n">
-        <v>676.7124946742043</v>
+        <v>984.5772922261141</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,22 +5266,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5293,25 +5293,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5369,13 +5369,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>983.3556038098237</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="C16" t="n">
-        <v>814.4194208819168</v>
+        <v>564.5188827892237</v>
       </c>
       <c r="D16" t="n">
-        <v>664.3027814695811</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>516.389687887188</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>369.4997403892776</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>202.3036411041575</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U16" t="n">
-        <v>2157.887856924458</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1903.203368718571</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1613.786198681611</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X16" t="n">
-        <v>1385.796647783593</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y16" t="n">
-        <v>1165.004068640063</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="17">
@@ -5494,31 +5494,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,37 +5527,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,52 +5740,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5837,16 +5837,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1802.364528928006</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1350.004464872981</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611858</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.284195611858</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,13 +6001,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2801.88941806167</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C25" t="n">
-        <v>2801.88941806167</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D25" t="n">
-        <v>2651.772778649335</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E25" t="n">
-        <v>2651.772778649335</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>2504.882831151424</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.255922673039</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V25" t="n">
-        <v>3677.571434467152</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W25" t="n">
-        <v>3432.320012933457</v>
+        <v>1560.161572207406</v>
       </c>
       <c r="X25" t="n">
-        <v>3204.33046203544</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y25" t="n">
-        <v>2983.53788289191</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="26">
@@ -6214,10 +6214,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>175.8744207939072</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>781.3544215660705</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>612.4182386381636</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4182386381636</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
         <v>317.6151975578602</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>963.0028863963103</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>963.0028863963103</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6454,7 +6454,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>557.5558870561822</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2423.619666148774</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2240.764831803678</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2021.163366826619</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1732.088140170817</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V31" t="n">
-        <v>1477.40365196493</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W31" t="n">
-        <v>1187.986481927969</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>959.9969310299521</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>739.2043518864219</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6700,10 +6700,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3173.601046153952</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>3173.601046153952</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741616</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159223</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>3173.601046153952</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>3173.601046153952</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E37" t="n">
         <v>631.7012443408906</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="38">
@@ -7165,7 +7165,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7371,13 +7371,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1433.701365648819</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="44">
@@ -7636,16 +7636,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7657,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>697.5276345711974</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C46" t="n">
-        <v>697.5276345711974</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>586.7330863012082</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>439.8431388032978</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>272.6470395181778</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>130.9352083603759</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7851,7 +7851,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>879.1760994014371</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093287</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720731</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8306,13 +8306,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8458,19 +8458,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2066704284449</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>159.7974209002377</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8546,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>96.12069185784497</v>
       </c>
       <c r="P9" t="n">
-        <v>230.7984289569017</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8698,7 +8698,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>49.74439522492685</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>-4.827809970636147e-13</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.537044377342397</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>157.8125473841249</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>71.22040037418611</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>69.70496293143134</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>138.4949402405068</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>127.7255247667966</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>134.6711151870887</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>203.6630665685109</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24372,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>43.72409101823291</v>
+        <v>125.5341284403478</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24609,13 +24609,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>72.11969353038609</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>46.24115926564448</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>43.26526345294994</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>13.30196929555964</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>65.33133491134424</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>66.73277020259238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>180.5487903941886</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>44.51847645928558</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>181.8372934928149</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>933216.2051361209</v>
+        <v>933098.1413636059</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>933098.1413636057</v>
+        <v>933098.1413636059</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>933098.1413636059</v>
+        <v>933098.141363606</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>933098.1413636057</v>
+        <v>933098.1413636059</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>933098.1413636056</v>
+        <v>933098.1413636059</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>933098.141363606</v>
+        <v>933098.1413636057</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>933098.141363606</v>
+        <v>933098.1413636057</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>933098.1413636059</v>
+        <v>933098.1413636057</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>933098.1413636057</v>
+        <v>933098.1413636059</v>
       </c>
     </row>
     <row r="16">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="D2" t="n">
         <v>492625.0619185701</v>
       </c>
       <c r="E2" t="n">
-        <v>483936.3770316737</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="F2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="G2" t="n">
-        <v>484287.9598140034</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="H2" t="n">
+        <v>484287.9598140035</v>
+      </c>
+      <c r="I2" t="n">
+        <v>484287.9598140035</v>
+      </c>
+      <c r="J2" t="n">
         <v>484287.9598140036</v>
-      </c>
-      <c r="I2" t="n">
-        <v>484287.9598140037</v>
-      </c>
-      <c r="J2" t="n">
-        <v>484287.9598140037</v>
       </c>
       <c r="K2" t="n">
         <v>484287.9598140036</v>
@@ -26346,10 +26346,10 @@
         <v>484287.9598140037</v>
       </c>
       <c r="M2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="N2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="O2" t="n">
         <v>484287.9598140037</v>
@@ -26374,13 +26374,13 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>763071.323141695</v>
+        <v>771052.691380807</v>
       </c>
       <c r="F3" t="n">
-        <v>7852.63761495089</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080586</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,19 +26426,19 @@
         <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
-        <v>6468.874198228084</v>
+        <v>5677.536566682746</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="G4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682729</v>
       </c>
       <c r="J4" t="n">
         <v>5677.536566682745</v>
@@ -26459,7 +26459,7 @@
         <v>5677.536566682745</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
     </row>
     <row r="5">
@@ -26475,10 +26475,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>87562.0451708468</v>
+        <v>87562.04517084679</v>
       </c>
       <c r="E5" t="n">
-        <v>100905.9587784758</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-390124.3108224173</v>
+        <v>-390124.3108224175</v>
       </c>
       <c r="C6" t="n">
-        <v>199843.5683921271</v>
+        <v>199843.5683921269</v>
       </c>
       <c r="D6" t="n">
-        <v>44039.76229833235</v>
+        <v>44039.76229833237</v>
       </c>
       <c r="E6" t="n">
-        <v>-386509.7790867252</v>
+        <v>-393912.1772117502</v>
       </c>
       <c r="F6" t="n">
-        <v>369635.2558084628</v>
+        <v>377140.5141690569</v>
       </c>
       <c r="G6" t="n">
-        <v>377487.8934234136</v>
+        <v>377140.5141690566</v>
       </c>
       <c r="H6" t="n">
-        <v>377487.8934234137</v>
+        <v>377140.5141690568</v>
       </c>
       <c r="I6" t="n">
-        <v>377487.8934234138</v>
+        <v>377140.5141690567</v>
       </c>
       <c r="J6" t="n">
-        <v>201064.6742308208</v>
+        <v>200717.294976464</v>
       </c>
       <c r="K6" t="n">
-        <v>377487.8934234137</v>
+        <v>377140.5141690568</v>
       </c>
       <c r="L6" t="n">
-        <v>377487.8934234138</v>
+        <v>377140.5141690569</v>
       </c>
       <c r="M6" t="n">
-        <v>253279.3827153554</v>
+        <v>252932.0034609982</v>
       </c>
       <c r="N6" t="n">
-        <v>377487.8934234138</v>
+        <v>377140.5141690568</v>
       </c>
       <c r="O6" t="n">
-        <v>377487.8934234138</v>
+        <v>377140.5141690569</v>
       </c>
       <c r="P6" t="n">
-        <v>377487.8934234137</v>
+        <v>377140.5141690567</v>
       </c>
     </row>
   </sheetData>
@@ -26740,13 +26740,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
       </c>
       <c r="E3" t="n">
-        <v>1358.041048716386</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26968,13 +26968,13 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>764.5649483783205</v>
+        <v>774.4994000036091</v>
       </c>
       <c r="F3" t="n">
-        <v>9.934451625288148</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450933</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450933</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450933</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>85.9894884579731</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>298.8787824626631</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,16 +27539,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,28 +27581,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>126.0327064945691</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>123.0710254722152</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>75.67326561448255</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>20.85956802425103</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>106.3837941340274</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27861,19 +27861,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>143.0187240116515</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>101.3673707234037</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>84.13694866011777</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28031,10 +28031,10 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>43.40671801669085</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28061,19 +28061,19 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377425</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122282</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874064</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>694.463976083043</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364263</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>958.6336695293307</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229608</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>919.8578442086952</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687524</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148606</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987162</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>124.4074789854257</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>23.89879272665719</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.921069425540905</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.2113810308819</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>634.2436048745724</v>
+        <v>164.2853229338195</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504301</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>394.0223077997508</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>557.7961431982453</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>372.8719498286952</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.2575834086216</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821092</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.448926481291843</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.77318271548567</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284925</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>173.1391022273333</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>284.5207311900886</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640618</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265021</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416874</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465962</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>296.1865264282424</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>205.0641983561742</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.1126397860859</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851328</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.46359496551969</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,22 +32554,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>220.7280629601522</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,13 +33040,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,13 +33277,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>164.9290651940687</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,16 +33496,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>441.0292693655512</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,13 +33514,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33733,16 +33733,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>384.4721492652009</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,13 +33751,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33970,16 +33970,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,13 +33988,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34456,16 +34456,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>641.2555750770852</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34786,19 +34786,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856226</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181304</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35178,19 +35178,19 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>452.9426864297107</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>348.3826863804474</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
         <v>247.6524856312129</v>
@@ -35266,13 +35266,13 @@
         <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>257.2442400081082</v>
       </c>
       <c r="P9" t="n">
-        <v>340.5859315097288</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607201</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380625</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>625.777556066439</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>778.0318315269849</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>744.7323009263698</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870084</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>553.8443926134828</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.2547334404111</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>127.3573607845841</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>495.6892250946982</v>
+        <v>25.73094315394538</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284117</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>251.4260633553063</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>423.8217357839151</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>232.8901757426737</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066049</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>262.2512393642057</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>391.678604124378</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883427</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>418.8847129209161</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>370.7297545606359</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931358</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044798</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,22 +35731,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,19 +36205,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36615,10 +36615,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>82.88662398579324</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,13 +36688,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,13 +36925,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>22.33282074962425</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37077,7 +37077,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>302.474889585677</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,13 +37162,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37311,7 +37311,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>245.9177694853267</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,13 +37399,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,13 +37636,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38104,16 +38104,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>509.9138629937518</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1367808.495840223</v>
+        <v>1369569.026143009</v>
       </c>
     </row>
     <row r="7">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>130.4588318996847</v>
       </c>
       <c r="E2" t="n">
-        <v>295.9408816142887</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -712,7 +712,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -822,7 +822,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>206.1608002224376</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>129.0666178516128</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>307.060576048998</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,16 +904,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>13.53541314334576</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>308.0642219113157</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>11.63416311648868</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1299,10 +1299,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>49.94675160484172</v>
       </c>
       <c r="F10" t="n">
-        <v>61.28409936281348</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1536,16 +1536,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>12.74007641194018</v>
       </c>
       <c r="F13" t="n">
-        <v>74.20064764874513</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>78.91051008678102</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>26.1362719570585</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>28.75188085812101</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>4.974488840438739</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>40.3626499519043</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>82.85993176808007</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>108.6115798077503</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>160.9888698962432</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>214.0647808588581</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>64.91921363453586</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -3003,10 +3003,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>147.6895341487364</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3198,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>239.7247859410132</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>105.9893107373038</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>101.9154861872836</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>80.90831282609496</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>45.16086499484859</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>36.74735985927995</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1662.483574129469</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="C2" t="n">
-        <v>1662.483574129469</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="D2" t="n">
-        <v>1662.483574129469</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
         <v>1363.553390680693</v>
@@ -4327,22 +4327,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.483574129469</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.483574129469</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.483574129469</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="Y2" t="n">
-        <v>1662.483574129469</v>
+        <v>1881.118241157406</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170821</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359551</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692481</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
         <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4436,16 +4436,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207637</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>369.7691122461817</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="C4" t="n">
-        <v>200.8329293182748</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D4" t="n">
         <v>200.8329293182748</v>
@@ -4476,19 +4476,19 @@
         <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4515,25 +4515,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="V4" t="n">
-        <v>597.7586631441991</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="W4" t="n">
-        <v>597.7586631441991</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="X4" t="n">
-        <v>369.7691122461817</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="Y4" t="n">
-        <v>369.7691122461817</v>
+        <v>519.8857516585174</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1568.353113282533</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C5" t="n">
-        <v>1568.353113282533</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1210.087414675782</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861747</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533135</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.961649073312</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224068</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2683.476956529994</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548715</v>
+        <v>2683.476956529994</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548715</v>
+        <v>2683.476956529994</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548715</v>
+        <v>2683.476956529994</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548715</v>
+        <v>2352.414069186424</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548715</v>
+        <v>1999.645413916309</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.654643287635</v>
+        <v>1999.645413916309</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.515311311824</v>
+        <v>1609.506081940498</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4643,19 +4643,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4713,19 +4713,19 @@
         <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>597.6692349330297</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="C8" t="n">
-        <v>597.6692349330297</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="D8" t="n">
-        <v>597.6692349330297</v>
+        <v>1281.586091536707</v>
       </c>
       <c r="E8" t="n">
-        <v>597.6692349330297</v>
+        <v>895.797838938463</v>
       </c>
       <c r="F8" t="n">
-        <v>590.7237341838262</v>
+        <v>484.8119341488554</v>
       </c>
       <c r="G8" t="n">
-        <v>173.6359524202536</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202536</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>242.5828808341008</v>
@@ -4810,19 +4810,19 @@
         <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>1198.863252100346</v>
+        <v>1094.46325341956</v>
       </c>
       <c r="M8" t="n">
-        <v>1543.762111616988</v>
+        <v>1281.162666244967</v>
       </c>
       <c r="N8" t="n">
-        <v>2171.069779676835</v>
+        <v>1475.49687913695</v>
       </c>
       <c r="O8" t="n">
-        <v>2341.238804993794</v>
+        <v>2022.658083904027</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243321</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2685.397411102577</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2685.397411102577</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2431.705707847728</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2100.642820504157</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>1747.874165234043</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>1374.408406972963</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>984.2690749971514</v>
+        <v>1639.851790143458</v>
       </c>
     </row>
     <row r="9">
@@ -4874,16 +4874,16 @@
         <v>338.2052143260214</v>
       </c>
       <c r="G9" t="n">
-        <v>200.7638166852433</v>
+        <v>200.7638166852434</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004795</v>
+        <v>99.84783883004796</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
         <v>383.3713861261743</v>
@@ -4898,7 +4898,7 @@
         <v>1726.935017112062</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2276.371025864785</v>
       </c>
       <c r="P9" t="n">
         <v>2405.574583200926</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>582.8120284125088</v>
+        <v>423.447068407922</v>
       </c>
       <c r="C10" t="n">
-        <v>413.8758454846019</v>
+        <v>254.510885480015</v>
       </c>
       <c r="D10" t="n">
-        <v>263.7592060722661</v>
+        <v>104.3942460676793</v>
       </c>
       <c r="E10" t="n">
-        <v>115.846112489873</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>154.9909114159743</v>
@@ -5001,13 +5001,13 @@
         <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>764.4604932427485</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="X10" t="n">
-        <v>764.4604932427485</v>
+        <v>825.8881123816918</v>
       </c>
       <c r="Y10" t="n">
-        <v>764.4604932427485</v>
+        <v>605.0955332381617</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5056,37 +5056,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703778</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969299</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>802.9288273958744</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C13" t="n">
-        <v>633.9926444679675</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D13" t="n">
-        <v>483.8760050556317</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E13" t="n">
-        <v>335.9629114732386</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>261.012762333092</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797191</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267662</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.5772922261141</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,22 +5266,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5293,25 +5293,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5369,7 +5369,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>733.4550657171305</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C16" t="n">
-        <v>564.5188827892237</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487568</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588918</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y16" t="n">
-        <v>915.1035305473703</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="17">
@@ -5494,31 +5494,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,37 +5527,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
         <v>1072.713683962606</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400721</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2441.938347377797</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2259.083513032701</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2039.482048055643</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1750.40682139984</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1495.722333193953</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703119</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,61 +5740,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5840,10 +5840,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>719.5738700011939</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C22" t="n">
-        <v>550.637687073287</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D22" t="n">
-        <v>550.637687073287</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1350.004464872981</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1122.014913974964</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>901.2223348314336</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
@@ -5986,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,13 +6001,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>929.7309773356194</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.776592304622</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W25" t="n">
-        <v>1560.161572207406</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X25" t="n">
-        <v>1332.172021309389</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y25" t="n">
-        <v>1111.379442165859</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="26">
@@ -6214,10 +6214,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6454,7 +6454,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6554,16 +6554,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>1022.530292372932</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>853.5941094450255</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>703.4774700326898</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>555.5643764502967</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>408.6744289523863</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>241.4783296672662</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U31" t="n">
-        <v>1828.279732885522</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V31" t="n">
-        <v>1573.595244679635</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.178074642674</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>1204.178757203172</v>
       </c>
     </row>
     <row r="32">
@@ -6688,10 +6688,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>560.7825789706076</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>391.8463960427007</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>241.729756630365</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797187</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U34" t="n">
-        <v>1735.314832085242</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V34" t="n">
-        <v>1480.630343879355</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W34" t="n">
-        <v>1191.213173842395</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>963.2236229443774</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>742.4310438008473</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
         <v>484.8112968429803</v>
@@ -7140,7 +7140,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7262,16 +7262,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="41">
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1098.667160263527</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>1098.667160263527</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7639,7 +7639,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>734.6461798836013</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>586.7330863012082</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>439.8431388032978</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>272.6470395181778</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>130.9352083603759</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7851,7 +7851,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.2865794093287</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720731</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,10 +8303,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093292</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8458,19 +8458,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>312.2066704284449</v>
       </c>
       <c r="M8" t="n">
-        <v>159.7974209002377</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8546,10 +8546,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>96.12069185784497</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>20.72114122105256</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>-4.827809970636147e-13</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>133.693886234629</v>
       </c>
       <c r="F13" t="n">
-        <v>71.22040037418611</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>69.70496293143134</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>191.2691783702298</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>138.4949402405068</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>61.40075786968295</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>105.0583980710269</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>203.6630665685109</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>71.22040037418695</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>125.5341284403478</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>72.11969353038609</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>75.37549921168802</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24891,10 +24891,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>138.4949402405077</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,19 +25125,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>65.33133491134424</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>144.8013425629422</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>180.5487903941886</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>44.51847645928558</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>933098.1413636059</v>
+        <v>933098.1413636057</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>933098.141363606</v>
+        <v>933098.1413636059</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>933098.1413636057</v>
+        <v>933098.1413636059</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>933098.141363606</v>
+        <v>933098.1413636057</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>933098.1413636059</v>
+        <v>933098.1413636057</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>933098.1413636059</v>
+        <v>933098.141363606</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>933098.1413636057</v>
+        <v>933098.141363606</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>933098.1413636057</v>
+        <v>933098.1413636059</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>933098.1413636057</v>
+        <v>933098.1413636059</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>933098.1413636059</v>
+        <v>933098.1413636057</v>
       </c>
     </row>
     <row r="16">
@@ -26316,28 +26316,28 @@
         <v>492625.0619185697</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185697</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
         <v>492625.0619185701</v>
       </c>
       <c r="E2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="F2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="G2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="H2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="I2" t="n">
         <v>484287.9598140035</v>
       </c>
       <c r="J2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="K2" t="n">
         <v>484287.9598140036</v>
@@ -26346,7 +26346,7 @@
         <v>484287.9598140037</v>
       </c>
       <c r="M2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="N2" t="n">
         <v>484287.9598140036</v>
@@ -26374,13 +26374,13 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.691380807</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080586</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682746</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="G4" t="n">
         <v>5677.536566682745</v>
@@ -26438,13 +26438,13 @@
         <v>5677.536566682745</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682729</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="J4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="L4" t="n">
         <v>5677.536566682745</v>
@@ -26475,10 +26475,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>87562.04517084679</v>
+        <v>87562.0451708468</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-390124.3108224175</v>
       </c>
       <c r="C6" t="n">
-        <v>199843.5683921269</v>
+        <v>199843.5683921271</v>
       </c>
       <c r="D6" t="n">
-        <v>44039.76229833237</v>
+        <v>44039.76229833235</v>
       </c>
       <c r="E6" t="n">
-        <v>-393912.1772117502</v>
+        <v>-393599.5358828283</v>
       </c>
       <c r="F6" t="n">
-        <v>377140.5141690569</v>
+        <v>377453.155497978</v>
       </c>
       <c r="G6" t="n">
-        <v>377140.5141690566</v>
+        <v>377453.1554979779</v>
       </c>
       <c r="H6" t="n">
-        <v>377140.5141690568</v>
+        <v>377453.1554979781</v>
       </c>
       <c r="I6" t="n">
-        <v>377140.5141690567</v>
+        <v>377453.1554979779</v>
       </c>
       <c r="J6" t="n">
-        <v>200717.294976464</v>
+        <v>201029.936305385</v>
       </c>
       <c r="K6" t="n">
-        <v>377140.5141690568</v>
+        <v>377453.155497978</v>
       </c>
       <c r="L6" t="n">
-        <v>377140.5141690569</v>
+        <v>377453.1554979782</v>
       </c>
       <c r="M6" t="n">
-        <v>252932.0034609982</v>
+        <v>253244.6447899194</v>
       </c>
       <c r="N6" t="n">
-        <v>377140.5141690568</v>
+        <v>377453.155497978</v>
       </c>
       <c r="O6" t="n">
-        <v>377140.5141690569</v>
+        <v>377453.1554979781</v>
       </c>
       <c r="P6" t="n">
-        <v>377140.5141690567</v>
+        <v>377453.155497978</v>
       </c>
     </row>
   </sheetData>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26968,13 +26968,13 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036091</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450933</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450933</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450933</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>224.2242097209983</v>
       </c>
       <c r="E2" t="n">
-        <v>85.9894884579731</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27542,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27587,7 +27587,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>5.984738727581259</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27596,13 +27596,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>123.0710254722152</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75.67326561448255</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.94298943146595</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27675,13 +27675,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>104.8526820346211</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>143.0187240116515</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28019,10 +28019,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>96.48721104172745</v>
       </c>
       <c r="F10" t="n">
-        <v>84.13694866011777</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338195</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>618.3341264639751</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565758</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33274,19 +33274,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>748.8168776781358</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33982,19 +33982,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>414.6448185524877</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34207,16 +34207,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,13 +34225,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34456,16 +34456,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34786,7 +34786,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856226</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181304</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
         <v>297.2230414343419</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,10 +35023,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35178,19 +35178,19 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>452.9426864297107</v>
       </c>
       <c r="M8" t="n">
-        <v>348.3826863804474</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
         <v>247.6524856312129</v>
@@ -35266,10 +35266,10 @@
         <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>257.2442400081082</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>130.5086437738797</v>
       </c>
       <c r="Q9" t="n">
         <v>233.0438950105733</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394538</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>476.2000925419567</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121313</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36612,13 +36612,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36922,19 +36922,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>617.4751655948025</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37560,13 +37560,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,19 +37630,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,13 +37873,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38104,16 +38104,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
